--- a/room_attribution/resultats/demi_journee_1/planning_presentateurs.xlsx
+++ b/room_attribution/resultats/demi_journee_1/planning_presentateurs.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A101 (29 él.)</t>
+          <t>J106 (33 él.)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -476,12 +476,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>J022 (139 él.)</t>
+          <t>J021 (166 él.)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A116 (31 él.)</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -493,27 +493,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>I013 (14 él.)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>J106 (36 él.)</t>
+          <t>A016 (35 él.)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>J021 (114 él.)</t>
+          <t>D03 (92 él.)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>J012 (24 él.)</t>
+          <t>A116 (43 él.)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>J110 (32 él.)</t>
+          <t>D03 (21 él.)</t>
         </is>
       </c>
     </row>
@@ -525,27 +525,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>J008 (12 él.)</t>
+          <t>J020 (27 él.)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>J110 (41 él.)</t>
+          <t>A017 (43 él.)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A017 (43 él.)</t>
+          <t>J109 (38 él.)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>I013 (60 él.)</t>
+          <t>A016 (38 él.)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>J204 (29 él.)</t>
+          <t>J020 (40 él.)</t>
         </is>
       </c>
     </row>
@@ -557,27 +557,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>J009 (16 él.)</t>
+          <t>A101 (14 él.)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A012 (32 él.)</t>
+          <t>J108 (34 él.)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A101 (31 él.)</t>
+          <t>J107 (18 él.)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>J020 (103 él.)</t>
+          <t>J020 (106 él.)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>J107 (19 él.)</t>
+          <t>J021 (27 él.)</t>
         </is>
       </c>
     </row>
@@ -589,27 +589,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>J109 (4 él.)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>J021 (80 él.)</t>
+          <t>D03 (76 él.)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>J022 (108 él.)</t>
+          <t>J021 (109 él.)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>J107 (19 él.)</t>
+          <t>J009 (19 él.)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>J009 (14 él.)</t>
+          <t>J012 (19 él.)</t>
         </is>
       </c>
     </row>
@@ -621,27 +621,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A012 (28 él.)</t>
+          <t>J107 (12 él.)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>J009 (19 él.)</t>
+          <t>J204 (35 él.)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>J020 (105 él.)</t>
+          <t>J020 (108 él.)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A016 (38 él.)</t>
+          <t>J204 (36 él.)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>J008 (19 él.)</t>
+          <t>A101 (17 él.)</t>
         </is>
       </c>
     </row>
@@ -653,27 +653,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>J204 (24 él.)</t>
+          <t>J204 (23 él.)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>J108 (38 él.)</t>
+          <t>A012 (38 él.)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A115 (45 él.)</t>
+          <t>J012 (22 él.)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A115 (45 él.)</t>
+          <t>D03 (79 él.)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A017 (27 él.)</t>
+          <t>J008 (16 él.)</t>
         </is>
       </c>
     </row>
@@ -685,27 +685,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>J107 (9 él.)</t>
+          <t>A012 (21 él.)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>J022 (143 él.)</t>
+          <t>J022 (116 él.)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>J110 (38 él.)</t>
+          <t>J204 (33 él.)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>J009 (19 él.)</t>
+          <t>J107 (18 él.)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>I013 (20 él.)</t>
         </is>
       </c>
     </row>
@@ -722,22 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>J020 (117 él.)</t>
+          <t>J020 (113 él.)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>J007 (19 él.)</t>
+          <t>A016 (38 él.)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A017 (43 él.)</t>
+          <t>J109 (38 él.)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A013 (24 él.)</t>
+          <t>A013 (14 él.)</t>
         </is>
       </c>
     </row>
@@ -749,12 +749,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A017 (36 él.)</t>
+          <t>J022 (29 él.)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>J204 (36 él.)</t>
+          <t>A115 (44 él.)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -764,12 +764,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A116 (48 él.)</t>
+          <t>A017 (43 él.)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>D03 (30 él.)</t>
+          <t>J106 (34 él.)</t>
         </is>
       </c>
     </row>
@@ -781,27 +781,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>J021 (33 él.)</t>
+          <t>A116 (35 él.)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A116 (48 él.)</t>
+          <t>J109 (38 él.)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>J106 (36 él.)</t>
+          <t>J108 (37 él.)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>J110 (39 él.)</t>
+          <t>J108 (38 él.)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>J106 (29 él.)</t>
+          <t>J109 (36 él.)</t>
         </is>
       </c>
     </row>
@@ -813,22 +813,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D03 (8 él.)</t>
+          <t>J008 (10 él.)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>D03 (86 él.)</t>
+          <t>J021 (129 él.)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>J107 (18 él.)</t>
+          <t>J009 (18 él.)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>J021 (103 él.)</t>
+          <t>I013 (58 él.)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -845,27 +845,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>J110 (40 él.)</t>
+          <t>A016 (31 él.)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A017 (43 él.)</t>
+          <t>J110 (42 él.)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>I013 (60 él.)</t>
+          <t>I013 (58 él.)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>J106 (36 él.)</t>
+          <t>A115 (43 él.)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>I013 (28 él.)</t>
+          <t>A116 (32 él.)</t>
         </is>
       </c>
     </row>
@@ -877,27 +877,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A115 (37 él.)</t>
+          <t>D03 (44 él.)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>J109 (38 él.)</t>
+          <t>J009 (19 él.)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>J108 (36 él.)</t>
+          <t>A013 (50 él.)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A013 (50 él.)</t>
+          <t>J110 (43 él.)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>J108 (29 él.)</t>
+          <t>J110 (35 él.)</t>
         </is>
       </c>
     </row>
@@ -909,27 +909,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>I013 (39 él.)</t>
+          <t>A013 (36 él.)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>I013 (59 él.)</t>
+          <t>I013 (58 él.)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>J109 (38 él.)</t>
+          <t>A017 (42 él.)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A012 (38 él.)</t>
+          <t>J007 (19 él.)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A012 (27 él.)</t>
+          <t>A115 (44 él.)</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A116 (36 él.)</t>
+          <t>J106 (33 él.)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -951,17 +951,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>J012 (24 él.)</t>
+          <t>J106 (36 él.)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>J108 (38 él.)</t>
+          <t>A012 (37 él.)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>J021 (37 él.)</t>
+          <t>J022 (29 él.)</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A016 (32 él.)</t>
+          <t>J109 (23 él.)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>D03 (96 él.)</t>
+          <t>J022 (116 él.)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>J007 (19 él.)</t>
+          <t>J008 (19 él.)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>J109 (25 él.)</t>
+          <t>J009 (11 él.)</t>
         </is>
       </c>
     </row>
@@ -1005,27 +1005,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>J022 (38 él.)</t>
+          <t>A115 (45 él.)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A115 (45 él.)</t>
+          <t>J107 (19 él.)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>A016 (38 él.)</t>
+          <t>J110 (43 él.)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>J109 (38 él.)</t>
+          <t>A013 (50 él.)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>J020 (35 él.)</t>
+          <t>J204 (35 él.)</t>
         </is>
       </c>
     </row>
@@ -1037,27 +1037,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>J020 (40 él.)</t>
+          <t>A017 (36 él.)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>J007 (19 él.)</t>
+          <t>A116 (46 él.)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>J204 (34 él.)</t>
+          <t>A101 (30 él.)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>D03 (79 él.)</t>
+          <t>J022 (77 él.)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>J022 (18 él.)</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A101 (23 él.)</t>
+          <t>J012 (24 él.)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>J108 (17 él.)</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>J008 (19 él.)</t>
+          <t>J007 (19 él.)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>J007 (16 él.)</t>
+          <t>A016 (15 él.)</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>J009 (15 él.)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>A115 (15 él.)</t>
+          <t>J107 (14 él.)</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>J012 (10 él.)</t>
+          <t>J007 (12 él.)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>J204 (31 él.)</t>
+          <t>A101 (28 él.)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>A013 (50 él.)</t>
+          <t>A115 (45 él.)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>J007 (14 él.)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>A016 (20 él.)</t>
+          <t>A017 (19 él.)</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A016 (35 él.)</t>
+          <t>A101 (28 él.)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>A101 (2 él.)</t>
+          <t>J007 (7 él.)</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>J108 (15 él.)</t>
+          <t>J108 (17 él.)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>J009 (19 él.)</t>
+          <t>J007 (19 él.)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>A013 (21 él.)</t>
+          <t>J110 (11 él.)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>J008 (19 él.)</t>
+          <t>J106 (34 él.)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1389,12 +1389,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>J106 (21 él.)</t>
+          <t>J021 (24 él.)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>J107 (19 él.)</t>
+          <t>J008 (17 él.)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1436,12 +1436,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A101 (28 él.)</t>
+          <t>J012 (24 él.)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>J012 (14 él.)</t>
+          <t>A012 (18 él.)</t>
         </is>
       </c>
     </row>
